--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-data-clean.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-data-clean.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2052,49 +2052,55 @@
     <t>*</t>
   </si>
   <si>
+    <t>HPFM.DATA_CLEAN_LOG</t>
+  </si>
+  <si>
+    <t>数据清理日志</t>
+  </si>
+  <si>
+    <t>数据清理日志清理任务</t>
+  </si>
+  <si>
+    <t>hzero-platform</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/v1/data-clean-logs/clear</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>HPFM.EXPORT_LOG</t>
   </si>
   <si>
     <t>异步导出日志清理配置</t>
   </si>
   <si>
-    <t>hzero-platform</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
     <t>/v1/export-task/clear/within</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>124568523237695491</t>
-  </si>
-  <si>
     <t>HPFM.LOGIN_LOG</t>
   </si>
   <si>
     <t>登录日志</t>
   </si>
   <si>
-    <t>Log in</t>
-  </si>
-  <si>
     <t>登录日志清理任务</t>
   </si>
   <si>
     <t>/v1/audit-logins/clear/within</t>
-  </si>
-  <si>
-    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3183,29 +3189,32 @@
       <c r="H8" t="s">
         <v>70</v>
       </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -3213,40 +3222,78 @@
         <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
         <v>80</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
         <v>72</v>
       </c>
-      <c r="L9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
         <v>75</v>
       </c>
-      <c r="P9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="O10" t="s">
         <v>76</v>
       </c>
-      <c r="R9" t="s">
-        <v>83</v>
+      <c r="P10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
